--- a/players_stats/Shawne Williams.xlsx
+++ b/players_stats/Shawne Williams.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ13"/>
+  <dimension ref="A1:AJ11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,15 +552,15 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1998-99</t>
+          <t>2006-07</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -570,90 +570,92 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>556</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>0.469</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="inlineStr"/>
+        <v>52</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.365</v>
+      </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="R2" t="n">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>0.519</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>0.528</v>
       </c>
       <c r="U2" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="V2" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="W2" t="n">
-        <v>0.75</v>
+        <v>0.55</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="AA2" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="AF2" t="n">
-        <v>3</v>
+        <v>180</v>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 185</t>
+          <t xml:space="preserve"> 206</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 91 </t>
+          <t xml:space="preserve"> 102 </t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
@@ -662,7 +664,7 @@
         </is>
       </c>
       <c r="AJ2" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -674,15 +676,15 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1999-00</t>
+          <t>2007-08</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -692,92 +694,92 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="H3" t="n">
+        <v>65</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J3" t="n">
+        <v>967</v>
+      </c>
+      <c r="K3" t="n">
+        <v>159</v>
+      </c>
+      <c r="L3" t="n">
+        <v>372</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.427</v>
+      </c>
+      <c r="N3" t="n">
         <v>43</v>
       </c>
-      <c r="I3" t="n">
-        <v>5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>517</v>
-      </c>
-      <c r="K3" t="n">
-        <v>84</v>
-      </c>
-      <c r="L3" t="n">
-        <v>225</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.373</v>
-      </c>
-      <c r="N3" t="n">
-        <v>24</v>
-      </c>
       <c r="O3" t="n">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="P3" t="n">
-        <v>0.296</v>
+        <v>0.314</v>
       </c>
       <c r="Q3" t="n">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="R3" t="n">
-        <v>144</v>
+        <v>235</v>
       </c>
       <c r="S3" t="n">
-        <v>0.417</v>
+        <v>0.494</v>
       </c>
       <c r="T3" t="n">
-        <v>0.427</v>
+        <v>0.485</v>
       </c>
       <c r="U3" t="n">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="V3" t="n">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="W3" t="n">
-        <v>0.647</v>
+        <v>0.7170000000000001</v>
       </c>
       <c r="X3" t="n">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="Y3" t="n">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="Z3" t="n">
-        <v>52</v>
+        <v>176</v>
       </c>
       <c r="AA3" t="n">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="AB3" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AD3" t="n">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="AE3" t="n">
-        <v>39</v>
+        <v>132</v>
       </c>
       <c r="AF3" t="n">
-        <v>225</v>
+        <v>437</v>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 185</t>
+          <t xml:space="preserve"> 206</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 91 </t>
+          <t xml:space="preserve"> 102 </t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
@@ -786,7 +788,7 @@
         </is>
       </c>
       <c r="AJ3" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
@@ -798,15 +800,15 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2000-01</t>
+          <t>2008-09</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -816,92 +818,92 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="I4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1238</v>
+        <v>170</v>
       </c>
       <c r="K4" t="n">
-        <v>161</v>
+        <v>16</v>
       </c>
       <c r="L4" t="n">
-        <v>368</v>
+        <v>56</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4379999999999999</v>
+        <v>0.286</v>
       </c>
       <c r="N4" t="n">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="O4" t="n">
-        <v>133</v>
+        <v>17</v>
       </c>
       <c r="P4" t="n">
-        <v>0.459</v>
+        <v>0.059</v>
       </c>
       <c r="Q4" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="R4" t="n">
-        <v>235</v>
+        <v>39</v>
       </c>
       <c r="S4" t="n">
-        <v>0.426</v>
+        <v>0.385</v>
       </c>
       <c r="T4" t="n">
-        <v>0.52</v>
+        <v>0.295</v>
       </c>
       <c r="U4" t="n">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="V4" t="n">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="W4" t="n">
-        <v>0.875</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="X4" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y4" t="n">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="Z4" t="n">
-        <v>132</v>
+        <v>46</v>
       </c>
       <c r="AA4" t="n">
-        <v>190</v>
+        <v>2</v>
       </c>
       <c r="AB4" t="n">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="AC4" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AD4" t="n">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="AE4" t="n">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="AF4" t="n">
-        <v>467</v>
+        <v>42</v>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 185</t>
+          <t xml:space="preserve"> 206</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 91 </t>
+          <t xml:space="preserve"> 102 </t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
@@ -910,7 +912,7 @@
         </is>
       </c>
       <c r="AJ4" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
@@ -922,15 +924,15 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2001-02</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -940,92 +942,92 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J5" t="n">
-        <v>603</v>
+        <v>1323</v>
       </c>
       <c r="K5" t="n">
-        <v>81</v>
+        <v>164</v>
       </c>
       <c r="L5" t="n">
-        <v>193</v>
+        <v>385</v>
       </c>
       <c r="M5" t="n">
-        <v>0.42</v>
+        <v>0.426</v>
       </c>
       <c r="N5" t="n">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="O5" t="n">
-        <v>75</v>
+        <v>212</v>
       </c>
       <c r="P5" t="n">
-        <v>0.373</v>
+        <v>0.401</v>
       </c>
       <c r="Q5" t="n">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="R5" t="n">
-        <v>118</v>
+        <v>173</v>
       </c>
       <c r="S5" t="n">
-        <v>0.449</v>
+        <v>0.457</v>
       </c>
       <c r="T5" t="n">
-        <v>0.492</v>
+        <v>0.536</v>
       </c>
       <c r="U5" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="V5" t="n">
+        <v>49</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.8370000000000001</v>
+      </c>
+      <c r="X5" t="n">
+        <v>60</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>179</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>239</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>47</v>
+      </c>
+      <c r="AB5" t="n">
         <v>39</v>
       </c>
-      <c r="W5" t="n">
-        <v>0.795</v>
-      </c>
-      <c r="X5" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>47</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>63</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>83</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>21</v>
-      </c>
       <c r="AC5" t="n">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="AD5" t="n">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="AE5" t="n">
-        <v>35</v>
+        <v>164</v>
       </c>
       <c r="AF5" t="n">
-        <v>221</v>
+        <v>454</v>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 185</t>
+          <t xml:space="preserve"> 206</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 91 </t>
+          <t xml:space="preserve"> 102 </t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
@@ -1034,7 +1036,7 @@
         </is>
       </c>
       <c r="AJ5" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
@@ -1046,15 +1048,15 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2002-03</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>TOT</t>
+          <t>NJN</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1064,92 +1066,92 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="I6" t="n">
+        <v>6</v>
+      </c>
+      <c r="J6" t="n">
+        <v>514</v>
+      </c>
+      <c r="K6" t="n">
+        <v>42</v>
+      </c>
+      <c r="L6" t="n">
+        <v>147</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="N6" t="n">
+        <v>21</v>
+      </c>
+      <c r="O6" t="n">
+        <v>87</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.241</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>21</v>
+      </c>
+      <c r="R6" t="n">
+        <v>60</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="U6" t="n">
+        <v>8</v>
+      </c>
+      <c r="V6" t="n">
         <v>11</v>
       </c>
-      <c r="J6" t="n">
-        <v>1881</v>
-      </c>
-      <c r="K6" t="n">
-        <v>228</v>
-      </c>
-      <c r="L6" t="n">
-        <v>579</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.394</v>
-      </c>
-      <c r="N6" t="n">
-        <v>93</v>
-      </c>
-      <c r="O6" t="n">
-        <v>261</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.356</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>135</v>
-      </c>
-      <c r="R6" t="n">
-        <v>318</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.425</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.474</v>
-      </c>
-      <c r="U6" t="n">
-        <v>78</v>
-      </c>
-      <c r="V6" t="n">
-        <v>102</v>
-      </c>
       <c r="W6" t="n">
-        <v>0.765</v>
+        <v>0.727</v>
       </c>
       <c r="X6" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="Y6" t="n">
-        <v>147</v>
+        <v>48</v>
       </c>
       <c r="Z6" t="n">
-        <v>171</v>
+        <v>68</v>
       </c>
       <c r="AA6" t="n">
-        <v>266</v>
+        <v>16</v>
       </c>
       <c r="AB6" t="n">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="AC6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AD6" t="n">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="AE6" t="n">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="AF6" t="n">
-        <v>627</v>
+        <v>113</v>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 185</t>
+          <t xml:space="preserve"> 206</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 91 </t>
+          <t xml:space="preserve"> 102 </t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
@@ -1158,7 +1160,7 @@
         </is>
       </c>
       <c r="AJ6" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
@@ -1170,7 +1172,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2002-03</t>
+          <t>2013-14</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -1178,7 +1180,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1188,92 +1190,92 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J7" t="n">
-        <v>1169</v>
+        <v>751</v>
       </c>
       <c r="K7" t="n">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="L7" t="n">
-        <v>338</v>
+        <v>192</v>
       </c>
       <c r="M7" t="n">
-        <v>0.396</v>
+        <v>0.38</v>
       </c>
       <c r="N7" t="n">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="O7" t="n">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="P7" t="n">
-        <v>0.352</v>
+        <v>0.326</v>
       </c>
       <c r="Q7" t="n">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="R7" t="n">
-        <v>179</v>
+        <v>63</v>
       </c>
       <c r="S7" t="n">
-        <v>0.436</v>
+        <v>0.492</v>
       </c>
       <c r="T7" t="n">
-        <v>0.479</v>
+        <v>0.49</v>
       </c>
       <c r="U7" t="n">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="V7" t="n">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="W7" t="n">
-        <v>0.8420000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="X7" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="Y7" t="n">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="Z7" t="n">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="AA7" t="n">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="AB7" t="n">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="AC7" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="AD7" t="n">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="AE7" t="n">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="AF7" t="n">
-        <v>372</v>
+        <v>202</v>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 185</t>
+          <t xml:space="preserve"> 206</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 91 </t>
+          <t xml:space="preserve"> 102 </t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
@@ -1282,7 +1284,7 @@
         </is>
       </c>
       <c r="AJ7" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
@@ -1294,15 +1296,15 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2002-03</t>
+          <t>2014-15</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>TOT</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1312,92 +1314,92 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="I8" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="J8" t="n">
-        <v>712</v>
+        <v>1087</v>
       </c>
       <c r="K8" t="n">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="L8" t="n">
-        <v>241</v>
+        <v>300</v>
       </c>
       <c r="M8" t="n">
-        <v>0.39</v>
+        <v>0.403</v>
       </c>
       <c r="N8" t="n">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="O8" t="n">
-        <v>102</v>
+        <v>178</v>
       </c>
       <c r="P8" t="n">
-        <v>0.363</v>
+        <v>0.36</v>
       </c>
       <c r="Q8" t="n">
         <v>57</v>
       </c>
       <c r="R8" t="n">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="S8" t="n">
-        <v>0.41</v>
+        <v>0.467</v>
       </c>
       <c r="T8" t="n">
-        <v>0.467</v>
+        <v>0.51</v>
       </c>
       <c r="U8" t="n">
+        <v>35</v>
+      </c>
+      <c r="V8" t="n">
+        <v>40</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="X8" t="n">
+        <v>36</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>130</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>166</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD8" t="n">
         <v>30</v>
       </c>
-      <c r="V8" t="n">
-        <v>45</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="X8" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>49</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>61</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>138</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>53</v>
-      </c>
       <c r="AE8" t="n">
-        <v>56</v>
+        <v>135</v>
       </c>
       <c r="AF8" t="n">
-        <v>255</v>
+        <v>341</v>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 185</t>
+          <t xml:space="preserve"> 206</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 91 </t>
+          <t xml:space="preserve"> 102 </t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
@@ -1406,7 +1408,7 @@
         </is>
       </c>
       <c r="AJ8" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
@@ -1418,7 +1420,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2003-04</t>
+          <t>2014-15</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -1426,7 +1428,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>TOT</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1436,92 +1438,92 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>SG-PG</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="J9" t="n">
-        <v>763</v>
+        <v>924</v>
       </c>
       <c r="K9" t="n">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="L9" t="n">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="M9" t="n">
-        <v>0.375</v>
+        <v>0.425</v>
       </c>
       <c r="N9" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="O9" t="n">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="P9" t="n">
-        <v>0.3</v>
+        <v>0.395</v>
       </c>
       <c r="Q9" t="n">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="R9" t="n">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="S9" t="n">
-        <v>0.4320000000000001</v>
+        <v>0.477</v>
       </c>
       <c r="T9" t="n">
-        <v>0.44</v>
+        <v>0.55</v>
       </c>
       <c r="U9" t="n">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="V9" t="n">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="W9" t="n">
-        <v>0.879</v>
+        <v>0.848</v>
       </c>
       <c r="X9" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="Y9" t="n">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="Z9" t="n">
-        <v>60</v>
+        <v>139</v>
       </c>
       <c r="AA9" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE9" t="n">
         <v>116</v>
       </c>
-      <c r="AB9" t="n">
-        <v>37</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>47</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>62</v>
-      </c>
       <c r="AF9" t="n">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 185</t>
+          <t xml:space="preserve"> 206</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 91 </t>
+          <t xml:space="preserve"> 102 </t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
@@ -1530,7 +1532,7 @@
         </is>
       </c>
       <c r="AJ9" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
@@ -1542,7 +1544,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2003-04</t>
+          <t>2014-15</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -1550,7 +1552,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1560,92 +1562,92 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>525</v>
+        <v>163</v>
       </c>
       <c r="K10" t="n">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="L10" t="n">
-        <v>151</v>
+        <v>60</v>
       </c>
       <c r="M10" t="n">
-        <v>0.391</v>
+        <v>0.317</v>
       </c>
       <c r="N10" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="O10" t="n">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="P10" t="n">
-        <v>0.338</v>
+        <v>0.154</v>
       </c>
       <c r="Q10" t="n">
+        <v>15</v>
+      </c>
+      <c r="R10" t="n">
         <v>34</v>
       </c>
-      <c r="R10" t="n">
-        <v>77</v>
-      </c>
       <c r="S10" t="n">
-        <v>0.442</v>
+        <v>0.441</v>
       </c>
       <c r="T10" t="n">
-        <v>0.474</v>
+        <v>0.35</v>
       </c>
       <c r="U10" t="n">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="V10" t="n">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="W10" t="n">
-        <v>0.889</v>
+        <v>1</v>
       </c>
       <c r="X10" t="n">
         <v>9</v>
       </c>
       <c r="Y10" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="Z10" t="n">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="AA10" t="n">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="AB10" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="AC10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AD10" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="AE10" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="AF10" t="n">
-        <v>183</v>
+        <v>49</v>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 185</t>
+          <t xml:space="preserve"> 206</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 91 </t>
+          <t xml:space="preserve"> 102 </t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
@@ -1654,7 +1656,7 @@
         </is>
       </c>
       <c r="AJ10" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
@@ -1666,17 +1668,11 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2003-04</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>28</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>NOH</t>
-        </is>
-      </c>
+          <t>Career</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>NBA</t>
@@ -1684,343 +1680,101 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>16</v>
+        <v>314</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="J11" t="n">
-        <v>238</v>
+        <v>5368</v>
       </c>
       <c r="K11" t="n">
-        <v>28</v>
+        <v>650</v>
       </c>
       <c r="L11" t="n">
-        <v>81</v>
+        <v>1612</v>
       </c>
       <c r="M11" t="n">
-        <v>0.346</v>
+        <v>0.403</v>
       </c>
       <c r="N11" t="n">
-        <v>5</v>
+        <v>275</v>
       </c>
       <c r="O11" t="n">
-        <v>26</v>
+        <v>812</v>
       </c>
       <c r="P11" t="n">
-        <v>0.192</v>
+        <v>0.339</v>
       </c>
       <c r="Q11" t="n">
-        <v>23</v>
+        <v>375</v>
       </c>
       <c r="R11" t="n">
-        <v>55</v>
+        <v>800</v>
       </c>
       <c r="S11" t="n">
-        <v>0.418</v>
+        <v>0.469</v>
       </c>
       <c r="T11" t="n">
-        <v>0.377</v>
+        <v>0.489</v>
       </c>
       <c r="U11" t="n">
-        <v>11</v>
+        <v>194</v>
       </c>
       <c r="V11" t="n">
-        <v>13</v>
+        <v>257</v>
       </c>
       <c r="W11" t="n">
-        <v>0.846</v>
+        <v>0.755</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>247</v>
       </c>
       <c r="Y11" t="n">
+        <v>698</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>945</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>220</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>127</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>156</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>197</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>656</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>1769</v>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 206</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 102 </t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ11" t="n">
         <v>17</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>52</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>72</v>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 185</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 91 </t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
-      <c r="AJ11" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2006-07</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>31</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>LAL</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NBA</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>30</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>345</v>
-      </c>
-      <c r="K12" t="n">
-        <v>35</v>
-      </c>
-      <c r="L12" t="n">
-        <v>86</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.407</v>
-      </c>
-      <c r="N12" t="n">
-        <v>20</v>
-      </c>
-      <c r="O12" t="n">
-        <v>50</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>15</v>
-      </c>
-      <c r="R12" t="n">
-        <v>36</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0.417</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0.523</v>
-      </c>
-      <c r="U12" t="n">
-        <v>4</v>
-      </c>
-      <c r="V12" t="n">
-        <v>6</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="X12" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>40</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>31</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>20</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>94</v>
-      </c>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 185</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 91 </t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
-      <c r="AJ12" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Career</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NBA</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>325</v>
-      </c>
-      <c r="I13" t="n">
-        <v>28</v>
-      </c>
-      <c r="J13" t="n">
-        <v>5351</v>
-      </c>
-      <c r="K13" t="n">
-        <v>676</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1684</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.401</v>
-      </c>
-      <c r="N13" t="n">
-        <v>256</v>
-      </c>
-      <c r="O13" t="n">
-        <v>700</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0.366</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>420</v>
-      </c>
-      <c r="R13" t="n">
-        <v>984</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0.427</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0.477</v>
-      </c>
-      <c r="U13" t="n">
-        <v>284</v>
-      </c>
-      <c r="V13" t="n">
-        <v>356</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0.7979999999999999</v>
-      </c>
-      <c r="X13" t="n">
-        <v>106</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>412</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>518</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>765</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>196</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>331</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>379</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>1892</v>
-      </c>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 185</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 91 </t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>Right</t>
-        </is>
-      </c>
-      <c r="AJ13" t="n">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
